--- a/biology/Botanique/Didymopanax/Didymopanax.xlsx
+++ b/biology/Botanique/Didymopanax/Didymopanax.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Didymopanax est un genre de plantes néotropicales appartenant à la famille des Araliaceae, compte 37 espèces, et dont l'espèce type est Panax morototoni Aubl..
-Anciennement inclus dans le genre Schefflera, ce genre a été réhabilité en 2020[2].
+Anciennement inclus dans le genre Schefflera, ce genre a été réhabilité en 2020.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon FIASCHI et al. (2020)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon FIASCHI et al. (2020) :
 Didymopanax acuminatus Marchal
 Didymopanax angustissimus Marchal in C. F. P. von Martius &amp; A. G. Eichler (syn. D. anomalus Taub., D. falcatus Marchal, D. navarroi A. Samp. in Navarro de Andrade &amp; Vecchi)
 Didymopanax auratus (Fiaschi) Fiaschi &amp; G. M. Plunkett
